--- a/outputs-HGR-r202/p__Elusimicrobiota.xlsx
+++ b/outputs-HGR-r202/p__Elusimicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40105_1.fa</t>
+          <t>even_MAG-GUT6030.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -510,7 +510,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40105_2.fa</t>
+          <t>even_MAG-GUT7328.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -525,121 +525,6 @@
         </is>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6030.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6030_1.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT6030_2.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7328.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7328_1.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>c__Elusimicrobia</t>
         </is>

--- a/outputs-HGR-r202/p__Elusimicrobiota.xlsx
+++ b/outputs-HGR-r202/p__Elusimicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,11 +455,6 @@
           <t>prediction</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>rejection-f</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -478,11 +473,6 @@
           <t>c__Elusimicrobia</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -501,11 +491,6 @@
           <t>c__Elusimicrobia</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,11 +505,6 @@
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>c__Elusimicrobia</t>
         </is>

--- a/outputs-HGR-r202/p__Elusimicrobiota.xlsx
+++ b/outputs-HGR-r202/p__Elusimicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>c__Elusimicrobia</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>c__Elusimicrobia</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>c__Elusimicrobia</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>c__Elusimicrobia</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -505,6 +520,11 @@
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
+        <is>
+          <t>c__Elusimicrobia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>c__Elusimicrobia</t>
         </is>

--- a/outputs-HGR-r202/p__Elusimicrobiota.xlsx
+++ b/outputs-HGR-r202/p__Elusimicrobiota.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>1643.945200406717</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>c__Elusimicrobia</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>c__Elusimicrobia</t>
         </is>
@@ -491,17 +483,14 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>1535.092286422305</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>c__Elusimicrobia</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>c__Elusimicrobia</t>
         </is>
@@ -514,17 +503,14 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>1723.472007440319</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>c__Elusimicrobia</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>c__Elusimicrobia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>c__Elusimicrobia</t>
         </is>
